--- a/Code/Results/Cases/Case_8_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019665065712877</v>
+        <v>1.014030860885785</v>
       </c>
       <c r="D2">
-        <v>1.034569208699454</v>
+        <v>1.029899483747288</v>
       </c>
       <c r="E2">
-        <v>1.03163428717662</v>
+        <v>1.027380312400613</v>
       </c>
       <c r="F2">
-        <v>1.040110648368569</v>
+        <v>1.036677043063821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05551875104233</v>
+        <v>1.053082560737925</v>
       </c>
       <c r="J2">
-        <v>1.041273095820359</v>
+        <v>1.035799859674694</v>
       </c>
       <c r="K2">
-        <v>1.045567064766771</v>
+        <v>1.040957412705917</v>
       </c>
       <c r="L2">
-        <v>1.042669819640204</v>
+        <v>1.038470932740461</v>
       </c>
       <c r="M2">
-        <v>1.051038090961585</v>
+        <v>1.047648004690752</v>
       </c>
       <c r="N2">
-        <v>1.042751823052117</v>
+        <v>1.029669783107309</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048965567106739</v>
+        <v>1.046282567295477</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04329013784118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040039474373455</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022583143609555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025112381213668</v>
+        <v>1.018551386066038</v>
       </c>
       <c r="D3">
-        <v>1.03826319064174</v>
+        <v>1.032825376661173</v>
       </c>
       <c r="E3">
-        <v>1.035994887705523</v>
+        <v>1.030961024058537</v>
       </c>
       <c r="F3">
-        <v>1.044030020799892</v>
+        <v>1.039996353717389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05699128288612</v>
+        <v>1.054151759082571</v>
       </c>
       <c r="J3">
-        <v>1.04494110490333</v>
+        <v>1.038548787198505</v>
       </c>
       <c r="K3">
-        <v>1.048428820391386</v>
+        <v>1.043054795710211</v>
       </c>
       <c r="L3">
-        <v>1.046187025477979</v>
+        <v>1.041212505157024</v>
       </c>
       <c r="M3">
-        <v>1.054128898291498</v>
+        <v>1.050141825570308</v>
       </c>
       <c r="N3">
-        <v>1.046425041128712</v>
+        <v>1.031211001661886</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051411701570352</v>
+        <v>1.048256241007701</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045310979220962</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041519563392271</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023076113887797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028556903514617</v>
+        <v>1.021417393913074</v>
       </c>
       <c r="D4">
-        <v>1.040600885077248</v>
+        <v>1.034681953441964</v>
       </c>
       <c r="E4">
-        <v>1.038757677702494</v>
+        <v>1.033236851567677</v>
       </c>
       <c r="F4">
-        <v>1.046515958545669</v>
+        <v>1.042107711313948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057908727035286</v>
+        <v>1.054816098912006</v>
       </c>
       <c r="J4">
-        <v>1.047257293088522</v>
+        <v>1.04028866638536</v>
       </c>
       <c r="K4">
-        <v>1.050232795589439</v>
+        <v>1.04437906930937</v>
       </c>
       <c r="L4">
-        <v>1.048409795858587</v>
+        <v>1.042950026836046</v>
       </c>
       <c r="M4">
-        <v>1.056083609811306</v>
+        <v>1.051723167216763</v>
       </c>
       <c r="N4">
-        <v>1.048744518566798</v>
+        <v>1.032186475872894</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052958700124315</v>
+        <v>1.049507752561141</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046587415998555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042456904396448</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023384797672038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029993738500529</v>
+        <v>1.022613592736388</v>
       </c>
       <c r="D5">
-        <v>1.041578886582074</v>
+        <v>1.035459638503415</v>
       </c>
       <c r="E5">
-        <v>1.039912824923499</v>
+        <v>1.034189059048164</v>
       </c>
       <c r="F5">
-        <v>1.047554760008308</v>
+        <v>1.042990519661814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05828996685637</v>
+        <v>1.055091837630131</v>
       </c>
       <c r="J5">
-        <v>1.048224830059225</v>
+        <v>1.041015948451743</v>
       </c>
       <c r="K5">
-        <v>1.050987424524328</v>
+        <v>1.044933777168423</v>
       </c>
       <c r="L5">
-        <v>1.049339130024149</v>
+        <v>1.043676938179342</v>
       </c>
       <c r="M5">
-        <v>1.056900138566669</v>
+        <v>1.052384058075381</v>
       </c>
       <c r="N5">
-        <v>1.049713429550977</v>
+        <v>1.032594228961581</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053604916689763</v>
+        <v>1.05003079675003</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047128096908098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042856969286704</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023514819537144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030242681412428</v>
+        <v>1.022819718868668</v>
       </c>
       <c r="D6">
-        <v>1.041751369264401</v>
+        <v>1.035596671340112</v>
       </c>
       <c r="E6">
-        <v>1.040114785929477</v>
+        <v>1.034354456625888</v>
       </c>
       <c r="F6">
-        <v>1.047734928747943</v>
+        <v>1.043142699820572</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058358122139968</v>
+        <v>1.055141306089001</v>
       </c>
       <c r="J6">
-        <v>1.04839507474774</v>
+        <v>1.041143465852745</v>
       </c>
       <c r="K6">
-        <v>1.051122368956583</v>
+        <v>1.045033346230336</v>
       </c>
       <c r="L6">
-        <v>1.049503156324928</v>
+        <v>1.043804503056433</v>
       </c>
       <c r="M6">
-        <v>1.057042983284134</v>
+        <v>1.052498984353646</v>
       </c>
       <c r="N6">
-        <v>1.049883916006478</v>
+        <v>1.032665721881024</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053717966690402</v>
+        <v>1.050121752006056</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047232172813111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042936938324574</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023539756396048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028599903870762</v>
+        <v>1.02149024881778</v>
       </c>
       <c r="D7">
-        <v>1.040638254928148</v>
+        <v>1.034741878253551</v>
       </c>
       <c r="E7">
-        <v>1.038797048993172</v>
+        <v>1.033304436847105</v>
       </c>
       <c r="F7">
-        <v>1.04654730210765</v>
+        <v>1.042160236252044</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057926344907796</v>
+        <v>1.054845742026275</v>
       </c>
       <c r="J7">
-        <v>1.047293440017711</v>
+        <v>1.040353865610493</v>
       </c>
       <c r="K7">
-        <v>1.050266911301609</v>
+        <v>1.044435462405563</v>
       </c>
       <c r="L7">
-        <v>1.048445882525684</v>
+        <v>1.043013987526574</v>
       </c>
       <c r="M7">
-        <v>1.056111791215075</v>
+        <v>1.051772279807175</v>
       </c>
       <c r="N7">
-        <v>1.048780716828773</v>
+        <v>1.032274818753386</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052981003438634</v>
+        <v>1.049546621404652</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046631466317677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042518786735742</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023409254514072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021553621935947</v>
+        <v>1.015720914636358</v>
       </c>
       <c r="D8">
-        <v>1.035859630577905</v>
+        <v>1.031018309050172</v>
       </c>
       <c r="E8">
-        <v>1.033151430135364</v>
+        <v>1.02874333045284</v>
       </c>
       <c r="F8">
-        <v>1.041468378526208</v>
+        <v>1.037913782101612</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056039747272806</v>
+        <v>1.053514139704181</v>
       </c>
       <c r="J8">
-        <v>1.042554552686761</v>
+        <v>1.036882711309902</v>
       </c>
       <c r="K8">
-        <v>1.046574818052209</v>
+        <v>1.041793891067767</v>
       </c>
       <c r="L8">
-        <v>1.043900314952658</v>
+        <v>1.039547537316433</v>
       </c>
       <c r="M8">
-        <v>1.052114471097177</v>
+        <v>1.048603556349153</v>
       </c>
       <c r="N8">
-        <v>1.044035099734255</v>
+        <v>1.030434114936121</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049817439474435</v>
+        <v>1.047038815973466</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04402544318745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040656020329626</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022808118401559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,105 +873,123 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00844526178093</v>
+        <v>1.004926047490296</v>
       </c>
       <c r="D9">
-        <v>1.026975146667982</v>
+        <v>1.024037921771749</v>
       </c>
       <c r="E9">
-        <v>1.022686800507707</v>
+        <v>1.020229247652533</v>
       </c>
       <c r="F9">
-        <v>1.032083578129978</v>
+        <v>1.03002957718842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05241317731767</v>
+        <v>1.050884726813629</v>
       </c>
       <c r="J9">
-        <v>1.03370328072518</v>
+        <v>1.030306045543703</v>
       </c>
       <c r="K9">
-        <v>1.039645222730722</v>
+        <v>1.036752677938636</v>
       </c>
       <c r="L9">
-        <v>1.035422219433677</v>
+        <v>1.033002429161951</v>
       </c>
       <c r="M9">
-        <v>1.044676717225187</v>
+        <v>1.042653534355967</v>
       </c>
       <c r="N9">
-        <v>1.035171257951233</v>
+        <v>1.026766276833817</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043931007386971</v>
+        <v>1.042329799610986</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039122629810743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037088123777306</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021609464212086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C10">
-        <v>0.9993720839035869</v>
+        <v>0.997692639160299</v>
       </c>
       <c r="D10">
-        <v>1.020860424282912</v>
+        <v>1.019415731128539</v>
       </c>
       <c r="E10">
-        <v>1.01553684160442</v>
+        <v>1.014643728235997</v>
       </c>
       <c r="F10">
-        <v>1.025722251308854</v>
+        <v>1.024870846501892</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049862398333566</v>
+        <v>1.049113943551283</v>
       </c>
       <c r="J10">
-        <v>1.027610636900579</v>
+        <v>1.025998102867451</v>
       </c>
       <c r="K10">
-        <v>1.034862982197298</v>
+        <v>1.033443059442134</v>
       </c>
       <c r="L10">
-        <v>1.029631127699927</v>
+        <v>1.028753525202968</v>
       </c>
       <c r="M10">
-        <v>1.039642110702917</v>
+        <v>1.038805114949322</v>
       </c>
       <c r="N10">
-        <v>1.029069961873565</v>
+        <v>1.024583778279264</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039997805521707</v>
+        <v>1.039335419911417</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035758064502317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034766509942732</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02086366568929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9965938871966089</v>
+        <v>0.9956249979698311</v>
       </c>
       <c r="D11">
-        <v>1.019120427492656</v>
+        <v>1.018245125130118</v>
       </c>
       <c r="E11">
-        <v>1.013817587249047</v>
+        <v>1.013494611276097</v>
       </c>
       <c r="F11">
-        <v>1.024480213664547</v>
+        <v>1.024080488378802</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049276254000406</v>
+        <v>1.048826992087246</v>
       </c>
       <c r="J11">
-        <v>1.026109054173529</v>
+        <v>1.025180921598075</v>
       </c>
       <c r="K11">
-        <v>1.033690549504801</v>
+        <v>1.032830976723486</v>
       </c>
       <c r="L11">
-        <v>1.028483545245918</v>
+        <v>1.028166448445831</v>
       </c>
       <c r="M11">
-        <v>1.038954778288579</v>
+        <v>1.038562134758201</v>
       </c>
       <c r="N11">
-        <v>1.027566246726809</v>
+        <v>1.024569621417773</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039889359592565</v>
+        <v>1.039578783301736</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034961938890096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034369821551067</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020916494249252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9960087571398896</v>
+        <v>0.995150084140442</v>
       </c>
       <c r="D12">
-        <v>1.018816068847977</v>
+        <v>1.018027707119945</v>
       </c>
       <c r="E12">
-        <v>1.013701210017737</v>
+        <v>1.013428956407337</v>
       </c>
       <c r="F12">
-        <v>1.024586525074996</v>
+        <v>1.024239694872735</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049256018990614</v>
+        <v>1.048853047822295</v>
       </c>
       <c r="J12">
-        <v>1.025982999362213</v>
+        <v>1.025161128918652</v>
       </c>
       <c r="K12">
-        <v>1.033591448101846</v>
+        <v>1.032817487225196</v>
       </c>
       <c r="L12">
-        <v>1.028570541261307</v>
+        <v>1.028303323183224</v>
       </c>
       <c r="M12">
-        <v>1.03925737334423</v>
+        <v>1.038916782684851</v>
       </c>
       <c r="N12">
-        <v>1.027440012903203</v>
+        <v>1.024751308772299</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040454531436227</v>
+        <v>1.040185219241454</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03489187099442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034360284225835</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021028033378538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9971079748203674</v>
+        <v>0.9958636783660678</v>
       </c>
       <c r="D13">
-        <v>1.019628862440443</v>
+        <v>1.018532253545043</v>
       </c>
       <c r="E13">
-        <v>1.014844804842637</v>
+        <v>1.014191468485587</v>
       </c>
       <c r="F13">
-        <v>1.025773201250608</v>
+        <v>1.02514915804387</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049692538790001</v>
+        <v>1.049128881516406</v>
       </c>
       <c r="J13">
-        <v>1.026942165869322</v>
+        <v>1.025750866711462</v>
       </c>
       <c r="K13">
-        <v>1.034346619777754</v>
+        <v>1.033269941901999</v>
       </c>
       <c r="L13">
-        <v>1.029649924663077</v>
+        <v>1.029008602332909</v>
       </c>
       <c r="M13">
-        <v>1.040380308006931</v>
+        <v>1.039767424312907</v>
       </c>
       <c r="N13">
-        <v>1.028400541536769</v>
+        <v>1.025039085877676</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041618542110985</v>
+        <v>1.041134043366177</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035423310159993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034677442114029</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021200516492228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9986326569084164</v>
+        <v>0.9969111509863453</v>
       </c>
       <c r="D14">
-        <v>1.020699261521783</v>
+        <v>1.019222714123732</v>
       </c>
       <c r="E14">
-        <v>1.016207043413484</v>
+        <v>1.015110704734069</v>
       </c>
       <c r="F14">
-        <v>1.02708560291372</v>
+        <v>1.026132026670634</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050201968833232</v>
+        <v>1.049439866513476</v>
       </c>
       <c r="J14">
-        <v>1.028098165323525</v>
+        <v>1.026448835268934</v>
       </c>
       <c r="K14">
-        <v>1.035257571165088</v>
+        <v>1.033807506214103</v>
       </c>
       <c r="L14">
-        <v>1.030846233670142</v>
+        <v>1.029769775510069</v>
       </c>
       <c r="M14">
-        <v>1.041530507838058</v>
+        <v>1.040593748360661</v>
       </c>
       <c r="N14">
-        <v>1.029558182642793</v>
+        <v>1.025294963822718</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042700711913255</v>
+        <v>1.04196028127317</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036068805598232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035059073687185</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021355722911535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9993844856265389</v>
+        <v>0.9974438948648156</v>
       </c>
       <c r="D15">
-        <v>1.021216229507202</v>
+        <v>1.019565754509909</v>
       </c>
       <c r="E15">
-        <v>1.016831542479449</v>
+        <v>1.015539378303461</v>
       </c>
       <c r="F15">
-        <v>1.027662720137752</v>
+        <v>1.026561394342794</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05043312842258</v>
+        <v>1.04958007853429</v>
       </c>
       <c r="J15">
-        <v>1.028631649122795</v>
+        <v>1.026771663655226</v>
       </c>
       <c r="K15">
-        <v>1.035679062090471</v>
+        <v>1.034057954821956</v>
       </c>
       <c r="L15">
-        <v>1.031372666565731</v>
+        <v>1.030103742474908</v>
       </c>
       <c r="M15">
-        <v>1.042012017611653</v>
+        <v>1.040929957437769</v>
       </c>
       <c r="N15">
-        <v>1.030092424050248</v>
+        <v>1.025395870993656</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043118754453503</v>
+        <v>1.042263497989687</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036372675960033</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035242587010846</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021416343372292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00302329123985</v>
+        <v>1.000130061725483</v>
       </c>
       <c r="D16">
-        <v>1.023654183002064</v>
+        <v>1.021246883091685</v>
       </c>
       <c r="E16">
-        <v>1.019643413317383</v>
+        <v>1.017538275077124</v>
       </c>
       <c r="F16">
-        <v>1.030159710626115</v>
+        <v>1.02843377552681</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051449809013073</v>
+        <v>1.050200525644414</v>
       </c>
       <c r="J16">
-        <v>1.031041066843154</v>
+        <v>1.02826175158002</v>
       </c>
       <c r="K16">
-        <v>1.03757363221113</v>
+        <v>1.035207246764808</v>
       </c>
       <c r="L16">
-        <v>1.033631168072546</v>
+        <v>1.031562160063721</v>
       </c>
       <c r="M16">
-        <v>1.043969824276058</v>
+        <v>1.04227272246392</v>
       </c>
       <c r="N16">
-        <v>1.032505263420135</v>
+        <v>1.025827481831134</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044627593542592</v>
+        <v>1.04328617146955</v>
       </c>
       <c r="Q16">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037715351534087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036058633096767</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021633916125566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005019161498025</v>
+        <v>1.001674511677786</v>
       </c>
       <c r="D17">
-        <v>1.024967445294984</v>
+        <v>1.022198641879781</v>
       </c>
       <c r="E17">
-        <v>1.021091589751403</v>
+        <v>1.018618265722753</v>
       </c>
       <c r="F17">
-        <v>1.031385821470345</v>
+        <v>1.02937159787658</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05196095323154</v>
+        <v>1.05052211685978</v>
       </c>
       <c r="J17">
-        <v>1.032285817806919</v>
+        <v>1.029068492610228</v>
       </c>
       <c r="K17">
-        <v>1.038551422650843</v>
+        <v>1.035828330424962</v>
       </c>
       <c r="L17">
-        <v>1.034739644358679</v>
+        <v>1.032307538778636</v>
       </c>
       <c r="M17">
-        <v>1.044865047411072</v>
+        <v>1.042883516367026</v>
       </c>
       <c r="N17">
-        <v>1.033751782073042</v>
+        <v>1.026092345669389</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045206581928689</v>
+        <v>1.043640185770038</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038409257173628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036500590435892</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02172489180711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005749326474356</v>
+        <v>1.002300361593587</v>
       </c>
       <c r="D18">
-        <v>1.025397391754192</v>
+        <v>1.02254199417484</v>
       </c>
       <c r="E18">
-        <v>1.021441979224457</v>
+        <v>1.018910498574676</v>
       </c>
       <c r="F18">
-        <v>1.031561373918148</v>
+        <v>1.029492031580429</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052064327802031</v>
+        <v>1.050579586472483</v>
       </c>
       <c r="J18">
-        <v>1.032596877027842</v>
+        <v>1.029276744840725</v>
       </c>
       <c r="K18">
-        <v>1.038791675050032</v>
+        <v>1.035982646121095</v>
       </c>
       <c r="L18">
-        <v>1.034900583159931</v>
+        <v>1.032410605072807</v>
       </c>
       <c r="M18">
-        <v>1.044856682292366</v>
+        <v>1.042820397871325</v>
       </c>
       <c r="N18">
-        <v>1.034063283033738</v>
+        <v>1.026127019891843</v>
       </c>
       <c r="O18">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P18">
-        <v>1.044963149518324</v>
+        <v>1.043353137307907</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038567519904636</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036596934781974</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021683009632902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005361743437915</v>
+        <v>1.002083788760464</v>
       </c>
       <c r="D19">
-        <v>1.025057846136609</v>
+        <v>1.022336158575688</v>
       </c>
       <c r="E19">
-        <v>1.020823685633283</v>
+        <v>1.018477437171062</v>
       </c>
       <c r="F19">
-        <v>1.030797865839311</v>
+        <v>1.028857224183257</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051816007837184</v>
+        <v>1.050400399183417</v>
       </c>
       <c r="J19">
-        <v>1.032090257376448</v>
+        <v>1.028934135225072</v>
       </c>
       <c r="K19">
-        <v>1.038395323864171</v>
+        <v>1.035717628041261</v>
       </c>
       <c r="L19">
-        <v>1.034229732078795</v>
+        <v>1.031921794755062</v>
       </c>
       <c r="M19">
-        <v>1.044043541008987</v>
+        <v>1.042133789944238</v>
       </c>
       <c r="N19">
-        <v>1.033555943924329</v>
+        <v>1.025911828173395</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043995949139904</v>
+        <v>1.0424854918167</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038293666469103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036416576500154</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021525186369498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001805345456567</v>
+        <v>0.9994896135360323</v>
       </c>
       <c r="D20">
-        <v>1.022520416037911</v>
+        <v>1.02056662605157</v>
       </c>
       <c r="E20">
-        <v>1.017470187640567</v>
+        <v>1.016017063069927</v>
       </c>
       <c r="F20">
-        <v>1.027431517975946</v>
+        <v>1.02615359726816</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050567565958481</v>
+        <v>1.049552465091442</v>
       </c>
       <c r="J20">
-        <v>1.029266851013553</v>
+        <v>1.027040223912591</v>
       </c>
       <c r="K20">
-        <v>1.03617850186592</v>
+        <v>1.034257225897977</v>
       </c>
       <c r="L20">
-        <v>1.031212646703477</v>
+        <v>1.029783999676038</v>
       </c>
       <c r="M20">
-        <v>1.041008577797888</v>
+        <v>1.039751644896913</v>
       </c>
       <c r="N20">
-        <v>1.03072852800055</v>
+        <v>1.02497289021339</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041068688672012</v>
+        <v>1.040073959746073</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036730224669929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035388344496394</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021038334705159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9946963756746695</v>
+        <v>0.9944915756085508</v>
       </c>
       <c r="D21">
-        <v>1.017709947888166</v>
+        <v>1.017442394279952</v>
       </c>
       <c r="E21">
-        <v>1.011792820954421</v>
+        <v>1.012221119796857</v>
       </c>
       <c r="F21">
-        <v>1.022330746615922</v>
+        <v>1.02248143731529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048504334325142</v>
+        <v>1.048372498254221</v>
       </c>
       <c r="J21">
-        <v>1.02441752510392</v>
+        <v>1.024221420872771</v>
       </c>
       <c r="K21">
-        <v>1.032363392209082</v>
+        <v>1.032100682331432</v>
       </c>
       <c r="L21">
-        <v>1.026554166817957</v>
+        <v>1.026974600269119</v>
       </c>
       <c r="M21">
-        <v>1.036901056494567</v>
+        <v>1.037049052493302</v>
       </c>
       <c r="N21">
-        <v>1.0258723154919</v>
+        <v>1.024202867232783</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037777096233429</v>
+        <v>1.037894225578647</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03403605697859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033867162312818</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020636919208923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9901499274140719</v>
+        <v>0.9912895822153674</v>
       </c>
       <c r="D22">
-        <v>1.014637944240414</v>
+        <v>1.015447120624429</v>
       </c>
       <c r="E22">
-        <v>1.008192056971748</v>
+        <v>1.009822164418869</v>
       </c>
       <c r="F22">
-        <v>1.019123271923599</v>
+        <v>1.020186606030767</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047178016528842</v>
+        <v>1.04760930830105</v>
       </c>
       <c r="J22">
-        <v>1.021328621746619</v>
+        <v>1.022416902768612</v>
       </c>
       <c r="K22">
-        <v>1.029924893008056</v>
+        <v>1.030718654862756</v>
       </c>
       <c r="L22">
-        <v>1.023602955907785</v>
+        <v>1.025201521617071</v>
       </c>
       <c r="M22">
-        <v>1.034325179428245</v>
+        <v>1.035368496064978</v>
       </c>
       <c r="N22">
-        <v>1.02277902553753</v>
+        <v>1.023664450134203</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035738451584402</v>
+        <v>1.036564171771578</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032298417255276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032875192971206</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02038302987429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9925468983307685</v>
+        <v>0.9929113139631881</v>
       </c>
       <c r="D23">
-        <v>1.016249384640231</v>
+        <v>1.01643791661549</v>
       </c>
       <c r="E23">
-        <v>1.010083358028514</v>
+        <v>1.011015057464024</v>
       </c>
       <c r="F23">
-        <v>1.020812108081286</v>
+        <v>1.021345913376944</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047873161510711</v>
+        <v>1.047979650798998</v>
       </c>
       <c r="J23">
-        <v>1.022950191978496</v>
+        <v>1.02329868791982</v>
       </c>
       <c r="K23">
-        <v>1.031200146589261</v>
+        <v>1.031385181707579</v>
       </c>
       <c r="L23">
-        <v>1.025149426367179</v>
+        <v>1.02606358494692</v>
       </c>
       <c r="M23">
-        <v>1.035678713745237</v>
+        <v>1.036202737346287</v>
       </c>
       <c r="N23">
-        <v>1.024402898585132</v>
+        <v>1.023838148164148</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036809689573893</v>
+        <v>1.037224421136169</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033190422379455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033335860317275</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020484191075925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001762520428923</v>
+        <v>0.999471321609512</v>
       </c>
       <c r="D24">
-        <v>1.022468337300142</v>
+        <v>1.020533182505602</v>
       </c>
       <c r="E24">
-        <v>1.017383829376583</v>
+        <v>1.015959102499332</v>
       </c>
       <c r="F24">
-        <v>1.027331941755783</v>
+        <v>1.026073590546682</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050527637994256</v>
+        <v>1.049522245667939</v>
       </c>
       <c r="J24">
-        <v>1.02919289197594</v>
+        <v>1.026989737773312</v>
       </c>
       <c r="K24">
-        <v>1.036112047358708</v>
+        <v>1.034209058667374</v>
       </c>
       <c r="L24">
-        <v>1.03111239132618</v>
+        <v>1.02971163723262</v>
       </c>
       <c r="M24">
-        <v>1.040895496921498</v>
+        <v>1.039657790322791</v>
       </c>
       <c r="N24">
-        <v>1.030654463932621</v>
+        <v>1.024936656794221</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040938433038711</v>
+        <v>1.03995887118167</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036655864672873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035324202280286</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021006157859802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011957624886217</v>
+        <v>1.007749618856012</v>
       </c>
       <c r="D25">
-        <v>1.029365969139836</v>
+        <v>1.025867640460886</v>
       </c>
       <c r="E25">
-        <v>1.025493993618455</v>
+        <v>1.022447370977043</v>
       </c>
       <c r="F25">
-        <v>1.034591206817208</v>
+        <v>1.032085672901243</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053406522560201</v>
+        <v>1.051584329687231</v>
       </c>
       <c r="J25">
-        <v>1.036089161303984</v>
+        <v>1.03201896272614</v>
       </c>
       <c r="K25">
-        <v>1.041524899679745</v>
+        <v>1.038077240285441</v>
       </c>
       <c r="L25">
-        <v>1.037709031205592</v>
+        <v>1.034706934989946</v>
       </c>
       <c r="M25">
-        <v>1.046675263166346</v>
+        <v>1.044205512116366</v>
       </c>
       <c r="N25">
-        <v>1.037560526754124</v>
+        <v>1.027660764503134</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045512713308021</v>
+        <v>1.043558081805498</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040480146174283</v>
+        <v>1.038056011041884</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021925041430114</v>
       </c>
     </row>
   </sheetData>
